--- a/TestHorse/bin/Debug/干劲.xlsx
+++ b/TestHorse/bin/Debug/干劲.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/TestHorse/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PrivateHorseRace\TestHorse\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9767C1A-D654-49DA-9BA9-74A31BE56AF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AAD625-5F42-4AE1-A4C6-3C05CB9DF036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,12 +384,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,59 +400,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="C2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>-0.04</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
